--- a/dev_projects/automatic_differentiation/two_stage_tol_1e-6.xlsx
+++ b/dev_projects/automatic_differentiation/two_stage_tol_1e-6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/sprdi_dtu_dk/Documents/Srinivas/Meanline_code/turboflow/dev_projects/automatic_differentiation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{348E31B3-6C61-4538-9920-35592DF8DB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{348E31B3-6C61-4538-9920-35592DF8DB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3CF754D-EC9F-41DA-B71E-C869ECAFC0F9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{2DBAF58E-F846-48A4-AC67-F5257073081F}"/>
   </bookViews>
@@ -527,7 +527,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,9 +587,7 @@
       <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
+      <c r="G2" s="4"/>
       <c r="H2" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -732,9 +730,7 @@
       <c r="F7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
+      <c r="G7" s="4"/>
       <c r="H7" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -877,9 +873,7 @@
       <c r="F12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
+      <c r="G12" s="4"/>
       <c r="H12" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
